--- a/DEMATERA, PEDRO BAUSTISTA.xlsx
+++ b/DEMATERA, PEDRO BAUSTISTA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEC009-6B3E-4247-814A-3A4692888DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA15E53-1433-4B94-94C0-90702D39CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +209,15 @@
   </si>
   <si>
     <t>12/23,26-29</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>11/22,23,24</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
   </si>
 </sst>
 </file>
@@ -595,6 +596,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,9 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2315,7 +2316,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2662,12 +2663,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2689,64 +2690,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>41456</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2772,18 +2773,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2830,7 +2831,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.575000000000003</v>
+        <v>67.825000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2840,7 +2841,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98</v>
+        <v>96.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4133,7 +4134,9 @@
       <c r="A73" s="40">
         <v>44895</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
@@ -4147,59 +4150,65 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="49">
+        <v>44887</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H74" s="39"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39">
+        <v>3</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="60">
-        <v>44904</v>
+      <c r="K74" s="49" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>44896</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="39">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>57</v>
+      <c r="K75" s="49">
+        <v>44904</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>5</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -4209,10 +4218,14 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="48" t="s">
+        <v>58</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4228,15 +4241,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44927</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4244,7 +4261,10 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <f>EDATE(A78,1)</f>
+        <v>44958</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4260,7 +4280,10 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <f t="shared" ref="A80:A110" si="0">EDATE(A79,1)</f>
+        <v>44986</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4276,7 +4299,10 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4292,7 +4318,10 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4308,7 +4337,10 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4324,7 +4356,10 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4340,7 +4375,10 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4356,7 +4394,10 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <f t="shared" si="0"/>
+        <v>45170</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4372,7 +4413,10 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4388,7 +4432,10 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4404,7 +4451,10 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4420,7 +4470,10 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4436,7 +4489,10 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4452,7 +4508,10 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <f t="shared" si="0"/>
+        <v>45352</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4468,7 +4527,10 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4484,7 +4546,10 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <f t="shared" si="0"/>
+        <v>45413</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4500,7 +4565,10 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <f t="shared" si="0"/>
+        <v>45444</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4516,7 +4584,10 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <f t="shared" si="0"/>
+        <v>45474</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4532,7 +4603,10 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <f t="shared" si="0"/>
+        <v>45505</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4548,7 +4622,10 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <f t="shared" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4564,7 +4641,10 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4580,7 +4660,10 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <f t="shared" si="0"/>
+        <v>45597</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4596,7 +4679,10 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <f t="shared" si="0"/>
+        <v>45627</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4612,7 +4698,10 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4628,7 +4717,10 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <f t="shared" si="0"/>
+        <v>45689</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4644,7 +4736,10 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <f t="shared" si="0"/>
+        <v>45717</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4660,7 +4755,10 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <f t="shared" si="0"/>
+        <v>45748</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4676,7 +4774,10 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <f t="shared" si="0"/>
+        <v>45778</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4692,7 +4793,10 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <f t="shared" si="0"/>
+        <v>45809</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4708,7 +4812,10 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <f t="shared" si="0"/>
+        <v>45839</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4724,7 +4831,10 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4740,7 +4850,10 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <f t="shared" si="0"/>
+        <v>45901</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5124,20 +5237,36 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5202,17 +5331,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5291,12 +5420,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
